--- a/Code/Results/Cases/Case_3_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8763392665132415</v>
+        <v>0.2879077579581804</v>
       </c>
       <c r="C2">
-        <v>0.121248066157662</v>
+        <v>0.06802732989288529</v>
       </c>
       <c r="D2">
-        <v>0.09400864144515708</v>
+        <v>0.03218597935602219</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2506440330014428</v>
+        <v>0.4429201865440646</v>
       </c>
       <c r="G2">
-        <v>0.1532919557658445</v>
+        <v>0.2890509517787407</v>
       </c>
       <c r="H2">
-        <v>0.177309151340026</v>
+        <v>0.475572796183819</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9005166034638137</v>
+        <v>0.2798556452117396</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6616321717172298</v>
+        <v>1.09904131137565</v>
       </c>
       <c r="O2">
-        <v>0.6456224947940683</v>
+        <v>1.454800420745968</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7641707324114861</v>
+        <v>0.2527692589264632</v>
       </c>
       <c r="C3">
-        <v>0.1116529023272932</v>
+        <v>0.06480976267991423</v>
       </c>
       <c r="D3">
-        <v>0.08265513992826357</v>
+        <v>0.02846685834177265</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2411580462773593</v>
+        <v>0.4444979314815249</v>
       </c>
       <c r="G3">
-        <v>0.1513220494273355</v>
+        <v>0.2916835176808945</v>
       </c>
       <c r="H3">
-        <v>0.1809391107979934</v>
+        <v>0.4797159895050598</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7898057998945802</v>
+        <v>0.244258678872626</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6761797184030272</v>
+        <v>1.10666087772519</v>
       </c>
       <c r="O3">
-        <v>0.6487751560913324</v>
+        <v>1.468864360362559</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6952173267015667</v>
+        <v>0.2311499199164757</v>
       </c>
       <c r="C4">
-        <v>0.1057515819852526</v>
+        <v>0.06282655412506699</v>
       </c>
       <c r="D4">
-        <v>0.07566647619618294</v>
+        <v>0.02617026664467659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2358850530401639</v>
+        <v>0.4457613045544093</v>
       </c>
       <c r="G4">
-        <v>0.1505814767200917</v>
+        <v>0.293525649720749</v>
       </c>
       <c r="H4">
-        <v>0.1834858942171778</v>
+        <v>0.482461176507833</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7216776302319516</v>
+        <v>0.222311113264027</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6858569253162088</v>
+        <v>1.111719578907284</v>
       </c>
       <c r="O4">
-        <v>0.6523640558586976</v>
+        <v>1.478392936267312</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.667092996188785</v>
+        <v>0.2223294096006896</v>
       </c>
       <c r="C5">
-        <v>0.1033441111170177</v>
+        <v>0.06201654191296058</v>
       </c>
       <c r="D5">
-        <v>0.07281371860469221</v>
+        <v>0.02523116518965196</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2338690279867883</v>
+        <v>0.4463502547271432</v>
       </c>
       <c r="G5">
-        <v>0.1503924254891942</v>
+        <v>0.2943330491058944</v>
       </c>
       <c r="H5">
-        <v>0.1846014331605588</v>
+        <v>0.4836305071698206</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6938728366226599</v>
+        <v>0.2133451020998081</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6899833517917244</v>
+        <v>1.113876774381353</v>
       </c>
       <c r="O5">
-        <v>0.6542265412199555</v>
+        <v>1.482500507363326</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6624213128627332</v>
+        <v>0.2208641582942334</v>
       </c>
       <c r="C6">
-        <v>0.1029441890042051</v>
+        <v>0.06188193115460194</v>
       </c>
       <c r="D6">
-        <v>0.07233971784625481</v>
+        <v>0.02507503518282306</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2335421185258113</v>
+        <v>0.4464525266552002</v>
       </c>
       <c r="G6">
-        <v>0.1503676947094235</v>
+        <v>0.2944705413154693</v>
       </c>
       <c r="H6">
-        <v>0.1847912963584761</v>
+        <v>0.4838277335906085</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.689253223354541</v>
+        <v>0.2118549811828672</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6906794611926514</v>
+        <v>1.114240760539623</v>
       </c>
       <c r="O6">
-        <v>0.6545595144028482</v>
+        <v>1.483196131093507</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6948381405236148</v>
+        <v>0.2310310048970052</v>
       </c>
       <c r="C7">
-        <v>0.1057191248556677</v>
+        <v>0.0628156373620854</v>
       </c>
       <c r="D7">
-        <v>0.07562802294596338</v>
+        <v>0.02615761456365817</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2358573343157531</v>
+        <v>0.4457689472146242</v>
       </c>
       <c r="G7">
-        <v>0.1505784773517789</v>
+        <v>0.2935363090113796</v>
       </c>
       <c r="H7">
-        <v>0.1835006270610577</v>
+        <v>0.4824767413996511</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7213028202296243</v>
+        <v>0.2221902835229059</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6859118409810634</v>
+        <v>1.111748283823232</v>
       </c>
       <c r="O7">
-        <v>0.6523875748403611</v>
+        <v>1.478447423037821</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8376774775777562</v>
+        <v>0.2758015479604694</v>
       </c>
       <c r="C8">
-        <v>0.1179415949828382</v>
+        <v>0.06691953589825061</v>
       </c>
       <c r="D8">
-        <v>0.09009734878088693</v>
+        <v>0.03090636495293353</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2472551927381517</v>
+        <v>0.4434030582373651</v>
       </c>
       <c r="G8">
-        <v>0.1525122205292391</v>
+        <v>0.2899117839200898</v>
       </c>
       <c r="H8">
-        <v>0.1784933848819463</v>
+        <v>0.4769596233576152</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.862372420125638</v>
+        <v>0.26760105588653</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6664908268345116</v>
+        <v>1.101589684275503</v>
       </c>
       <c r="O8">
-        <v>0.6463567828597121</v>
+        <v>1.459464259881273</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.11738042500744</v>
+        <v>0.3632215908014302</v>
       </c>
       <c r="C9">
-        <v>0.1418408599065799</v>
+        <v>0.07490397385519998</v>
       </c>
       <c r="D9">
-        <v>0.1183526651904572</v>
+        <v>0.04011313934142891</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2742593188382898</v>
+        <v>0.4411005722768522</v>
       </c>
       <c r="G9">
-        <v>0.1602683530074174</v>
+        <v>0.2845973197197651</v>
       </c>
       <c r="H9">
-        <v>0.1713025867854086</v>
+        <v>0.4677356622538227</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.138013687697963</v>
+        <v>0.3559056305408888</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6345248807362509</v>
+        <v>1.084680870394237</v>
       </c>
       <c r="O9">
-        <v>0.648383972227947</v>
+        <v>1.429327152602568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.323007019162446</v>
+        <v>0.4271936722313683</v>
       </c>
       <c r="C10">
-        <v>0.1593734731680883</v>
+        <v>0.08072817216086037</v>
       </c>
       <c r="D10">
-        <v>0.1390709111828556</v>
+        <v>0.04681084475470243</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2973384301855901</v>
+        <v>0.4408333360433403</v>
       </c>
       <c r="G10">
-        <v>0.1687351201828946</v>
+        <v>0.2817892223437681</v>
       </c>
       <c r="H10">
-        <v>0.1677740677692654</v>
+        <v>0.4619288547312621</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.340242411372117</v>
+        <v>0.420301089892348</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6150692676092859</v>
+        <v>1.07408762714482</v>
       </c>
       <c r="O10">
-        <v>0.6593839096952081</v>
+        <v>1.41150914421705</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.416669545326641</v>
+        <v>0.4562354036945351</v>
       </c>
       <c r="C11">
-        <v>0.1673478269025708</v>
+        <v>0.08336795348238013</v>
       </c>
       <c r="D11">
-        <v>0.1484947339179854</v>
+        <v>0.04984292865127316</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3086342555435735</v>
+        <v>0.4410210296917541</v>
       </c>
       <c r="G11">
-        <v>0.1732694414129838</v>
+        <v>0.2807505314800594</v>
       </c>
       <c r="H11">
-        <v>0.1665851114845012</v>
+        <v>0.4594973230341282</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.432257207551658</v>
+        <v>0.4494861744080367</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6071629111021792</v>
+        <v>1.069664420564919</v>
       </c>
       <c r="O11">
-        <v>0.6666998742924903</v>
+        <v>1.404342633757466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.452162167017235</v>
+        <v>0.4672236074483465</v>
       </c>
       <c r="C12">
-        <v>0.1703676432034626</v>
+        <v>0.08436610917541998</v>
       </c>
       <c r="D12">
-        <v>0.1520637525878499</v>
+        <v>0.05098892985689929</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3130344234008717</v>
+        <v>0.4411365588302161</v>
       </c>
       <c r="G12">
-        <v>0.1750917858985446</v>
+        <v>0.2803915878054113</v>
       </c>
       <c r="H12">
-        <v>0.1661978366472283</v>
+        <v>0.4586067282584381</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.46711016860985</v>
+        <v>0.4605215767024049</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6043108763097962</v>
+        <v>1.068046268141224</v>
       </c>
       <c r="O12">
-        <v>0.6698243519229123</v>
+        <v>1.401763928135765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.444516980823835</v>
+        <v>0.4648575248252769</v>
       </c>
       <c r="C13">
-        <v>0.1697172622604626</v>
+        <v>0.08415120524902875</v>
       </c>
       <c r="D13">
-        <v>0.1512950724357154</v>
+        <v>0.05074221611329222</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3120811791113027</v>
+        <v>0.441109700770852</v>
       </c>
       <c r="G13">
-        <v>0.1746945110460629</v>
+        <v>0.2804673625175838</v>
       </c>
       <c r="H13">
-        <v>0.1662783919014146</v>
+        <v>0.4587971922215388</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.459603459923159</v>
+        <v>0.4581456442626859</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6049186990118258</v>
+        <v>1.068392240441071</v>
       </c>
       <c r="O13">
-        <v>0.6691353356654162</v>
+        <v>1.402313288982072</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.419589008050337</v>
+        <v>0.4571395997047318</v>
       </c>
       <c r="C14">
-        <v>0.1675962651977443</v>
+        <v>0.08345010231857941</v>
       </c>
       <c r="D14">
-        <v>0.1487883474207194</v>
+        <v>0.04993725498158597</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3089937535057743</v>
+        <v>0.441029643532211</v>
       </c>
       <c r="G14">
-        <v>0.1734172144186203</v>
+        <v>0.2807203114955215</v>
       </c>
       <c r="H14">
-        <v>0.1665519699978901</v>
+        <v>0.4594234486938475</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.435124365727347</v>
+        <v>0.4503943955154455</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6069253915165618</v>
+        <v>1.069530155904538</v>
       </c>
       <c r="O14">
-        <v>0.6669497028150886</v>
+        <v>1.404127774164493</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.404323335305349</v>
+        <v>0.4524109193065726</v>
       </c>
       <c r="C15">
-        <v>0.1662971156312523</v>
+        <v>0.08302046241007588</v>
       </c>
       <c r="D15">
-        <v>0.1472529782441399</v>
+        <v>0.04944390682578614</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3071188399428735</v>
+        <v>0.4409863947911816</v>
       </c>
       <c r="G15">
-        <v>0.1726487635048244</v>
+        <v>0.2808797298094845</v>
       </c>
       <c r="H15">
-        <v>0.1667278384519548</v>
+        <v>0.4598109775682815</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.420131568067774</v>
+        <v>0.4456443804658932</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6081732206821897</v>
+        <v>1.070234559177941</v>
       </c>
       <c r="O15">
-        <v>0.6656577120560456</v>
+        <v>1.40525679432524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.316889004576268</v>
+        <v>0.4252944685719058</v>
       </c>
       <c r="C16">
-        <v>0.1588523280910294</v>
+        <v>0.08055545462759994</v>
       </c>
       <c r="D16">
-        <v>0.1384550695840545</v>
+        <v>0.0466123889383141</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2966169403024992</v>
+        <v>0.4408272914535942</v>
       </c>
       <c r="G16">
-        <v>0.1684531302695476</v>
+        <v>0.2818619119556018</v>
       </c>
       <c r="H16">
-        <v>0.1678604057529895</v>
+        <v>0.4620919848213205</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.334229939693586</v>
+        <v>0.4183915264318046</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6156054846961894</v>
+        <v>1.074384649703823</v>
       </c>
       <c r="O16">
-        <v>0.6589541403447043</v>
+        <v>1.411996393509654</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.263287026719894</v>
+        <v>0.4086436589058167</v>
       </c>
       <c r="C17">
-        <v>0.1542850523038766</v>
+        <v>0.07904071643493182</v>
       </c>
       <c r="D17">
-        <v>0.1330579718380562</v>
+        <v>0.04487152462800736</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2903841168585828</v>
+        <v>0.4408088835910533</v>
       </c>
       <c r="G17">
-        <v>0.1660590619288627</v>
+        <v>0.2825256336797182</v>
       </c>
       <c r="H17">
-        <v>0.1686639564106329</v>
+        <v>0.4635450798484371</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.281541374113488</v>
+        <v>0.4016444216174477</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6204110374789096</v>
+        <v>1.07703188763989</v>
       </c>
       <c r="O17">
-        <v>0.6554489121376861</v>
+        <v>1.41637146829126</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.232467611804566</v>
+        <v>0.399060996930757</v>
       </c>
       <c r="C18">
-        <v>0.1516579326699912</v>
+        <v>0.0781685731906947</v>
       </c>
       <c r="D18">
-        <v>0.1299535729295798</v>
+        <v>0.04386884235701416</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2868736739612174</v>
+        <v>0.4408274060945061</v>
       </c>
       <c r="G18">
-        <v>0.164745873057413</v>
+        <v>0.2829298555797592</v>
       </c>
       <c r="H18">
-        <v>0.1691651152058711</v>
+        <v>0.4644006307720616</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.251237791000733</v>
+        <v>0.3920017384452024</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6232635398789483</v>
+        <v>1.078591760103549</v>
       </c>
       <c r="O18">
-        <v>0.6536490588553932</v>
+        <v>1.41897627376926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.222034371844416</v>
+        <v>0.3958155396694565</v>
       </c>
       <c r="C19">
-        <v>0.1507684020618143</v>
+        <v>0.0778731273500739</v>
       </c>
       <c r="D19">
-        <v>0.1289024375445393</v>
+        <v>0.04352911576101803</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2856976565521236</v>
+        <v>0.4408386777237467</v>
       </c>
       <c r="G19">
-        <v>0.1643119994091649</v>
+        <v>0.2830705750854037</v>
       </c>
       <c r="H19">
-        <v>0.1693414012718932</v>
+        <v>0.4646937017776622</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.240977595286438</v>
+        <v>0.3887351631675529</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6242443609618462</v>
+        <v>1.079126306614455</v>
       </c>
       <c r="O19">
-        <v>0.6530761621389019</v>
+        <v>1.419873393000401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.268991857665554</v>
+        <v>0.4104167462923556</v>
       </c>
       <c r="C20">
-        <v>0.1547712594299355</v>
+        <v>0.07920205724539642</v>
       </c>
       <c r="D20">
-        <v>0.1336325116636488</v>
+        <v>0.04505698622239152</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2910398426449916</v>
+        <v>0.4408078304659924</v>
       </c>
       <c r="G20">
-        <v>0.1663072595003996</v>
+        <v>0.2824526537294503</v>
       </c>
       <c r="H20">
-        <v>0.1685743610116077</v>
+        <v>0.4633883495658466</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.287149965328894</v>
+        <v>0.4034282395057289</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6198902775911677</v>
+        <v>1.076746229889388</v>
       </c>
       <c r="O20">
-        <v>0.6557995144515729</v>
+        <v>1.415896586785166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.426910229647831</v>
+        <v>0.4594067986747064</v>
       </c>
       <c r="C21">
-        <v>0.1682192482238634</v>
+        <v>0.08365607384274654</v>
       </c>
       <c r="D21">
-        <v>0.1495246172013651</v>
+        <v>0.05017375134093527</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3098972092305488</v>
+        <v>0.4410519519720353</v>
       </c>
       <c r="G21">
-        <v>0.1737894711402035</v>
+        <v>0.2806450805700962</v>
       </c>
       <c r="H21">
-        <v>0.1664698792413404</v>
+        <v>0.4592386832968032</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.442314175338538</v>
+        <v>0.4526715747957439</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6063320745893535</v>
+        <v>1.069194381126529</v>
       </c>
       <c r="O21">
-        <v>0.6675818886502185</v>
+        <v>1.403591148854019</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.530266379769444</v>
+        <v>0.4913702672305078</v>
       </c>
       <c r="C22">
-        <v>0.1770090349389335</v>
+        <v>0.0865584126462835</v>
       </c>
       <c r="D22">
-        <v>0.1599137704957769</v>
+        <v>0.05350509808953063</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3229407342527892</v>
+        <v>0.4414706001921829</v>
       </c>
       <c r="G22">
-        <v>0.1792968457352089</v>
+        <v>0.2796641809548319</v>
       </c>
       <c r="H22">
-        <v>0.1654630035793829</v>
+        <v>0.4567024986215529</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.543778296451421</v>
+        <v>0.4847592728277448</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.598301377618391</v>
+        <v>1.064589964085968</v>
       </c>
       <c r="O22">
-        <v>0.6773570591671501</v>
+        <v>1.396336310062111</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.475087294935634</v>
+        <v>0.4743159730454636</v>
       </c>
       <c r="C23">
-        <v>0.1723175878936303</v>
+        <v>0.08501019506951479</v>
       </c>
       <c r="D23">
-        <v>0.1543684369423346</v>
+        <v>0.05172828397358842</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3159105802995157</v>
+        <v>0.4412234581793015</v>
       </c>
       <c r="G23">
-        <v>0.1762985218890876</v>
+        <v>0.2801693452799938</v>
       </c>
       <c r="H23">
-        <v>0.1659656012006607</v>
+        <v>0.4580400253912984</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.48961779438946</v>
+        <v>0.467642456038476</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6025094113372589</v>
+        <v>1.067017154599796</v>
       </c>
       <c r="O23">
-        <v>0.6719425911335435</v>
+        <v>1.400136277134266</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.266412713234189</v>
+        <v>0.4096151642352481</v>
       </c>
       <c r="C24">
-        <v>0.1545514493583795</v>
+        <v>0.07912911910884191</v>
       </c>
       <c r="D24">
-        <v>0.1333727670335918</v>
+        <v>0.04497314474994596</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2907431625857058</v>
+        <v>0.4408082159227718</v>
       </c>
       <c r="G24">
-        <v>0.1661948530805262</v>
+        <v>0.2824855774500818</v>
       </c>
       <c r="H24">
-        <v>0.1686147452666731</v>
+        <v>0.4634591445683824</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.284614359773087</v>
+        <v>0.4026218207032457</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6201254341228903</v>
+        <v>1.076875257572482</v>
       </c>
       <c r="O24">
-        <v>0.6556403380028684</v>
+        <v>1.416111001884815</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.0417192861903</v>
+        <v>0.3396150646206308</v>
       </c>
       <c r="C25">
-        <v>0.1353813053421078</v>
+        <v>0.07275109822649029</v>
       </c>
       <c r="D25">
-        <v>0.1107184243332426</v>
+        <v>0.03763398417657982</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.266415423570173</v>
+        <v>0.4414732901502703</v>
       </c>
       <c r="G25">
-        <v>0.1577104286706899</v>
+        <v>0.2858427081848234</v>
       </c>
       <c r="H25">
-        <v>0.1729512291473227</v>
+        <v>0.4700604684290752</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.063520030257678</v>
+        <v>0.3320995651804708</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.642487436167869</v>
+        <v>1.088933373163954</v>
       </c>
       <c r="O25">
-        <v>0.6462455572206096</v>
+        <v>1.436720899642893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2879077579581804</v>
+        <v>0.8763392665132415</v>
       </c>
       <c r="C2">
-        <v>0.06802732989288529</v>
+        <v>0.121248066157662</v>
       </c>
       <c r="D2">
-        <v>0.03218597935602219</v>
+        <v>0.09400864144524945</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4429201865440646</v>
+        <v>0.2506440330014428</v>
       </c>
       <c r="G2">
-        <v>0.2890509517787407</v>
+        <v>0.1532919557659085</v>
       </c>
       <c r="H2">
-        <v>0.475572796183819</v>
+        <v>0.1773091513401397</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2798556452117396</v>
+        <v>0.9005166034638705</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.09904131137565</v>
+        <v>0.6616321717172866</v>
       </c>
       <c r="O2">
-        <v>1.454800420745968</v>
+        <v>0.6456224947940115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2527692589264632</v>
+        <v>0.7641707324114577</v>
       </c>
       <c r="C3">
-        <v>0.06480976267991423</v>
+        <v>0.111652902327549</v>
       </c>
       <c r="D3">
-        <v>0.02846685834177265</v>
+        <v>0.08265513992826357</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4444979314815249</v>
+        <v>0.2411580462773948</v>
       </c>
       <c r="G3">
-        <v>0.2916835176808945</v>
+        <v>0.1513220494272858</v>
       </c>
       <c r="H3">
-        <v>0.4797159895050598</v>
+        <v>0.1809391107981071</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.244258678872626</v>
+        <v>0.7898057998946371</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10666087772519</v>
+        <v>0.67617971840302</v>
       </c>
       <c r="O3">
-        <v>1.468864360362559</v>
+        <v>0.648775156091375</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2311499199164757</v>
+        <v>0.6952173267015382</v>
       </c>
       <c r="C4">
-        <v>0.06282655412506699</v>
+        <v>0.1057515819850181</v>
       </c>
       <c r="D4">
-        <v>0.02617026664467659</v>
+        <v>0.07566647619606215</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4457613045544093</v>
+        <v>0.2358850530401639</v>
       </c>
       <c r="G4">
-        <v>0.293525649720749</v>
+        <v>0.1505814767200278</v>
       </c>
       <c r="H4">
-        <v>0.482461176507833</v>
+        <v>0.1834858942171778</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.222311113264027</v>
+        <v>0.7216776302318664</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.111719578907284</v>
+        <v>0.6858569253162017</v>
       </c>
       <c r="O4">
-        <v>1.478392936267312</v>
+        <v>0.652364055858655</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2223294096006896</v>
+        <v>0.667092996188785</v>
       </c>
       <c r="C5">
-        <v>0.06201654191296058</v>
+        <v>0.1033441111172522</v>
       </c>
       <c r="D5">
-        <v>0.02523116518965196</v>
+        <v>0.07281371860460695</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4463502547271432</v>
+        <v>0.2338690279867919</v>
       </c>
       <c r="G5">
-        <v>0.2943330491058944</v>
+        <v>0.1503924254891942</v>
       </c>
       <c r="H5">
-        <v>0.4836305071698206</v>
+        <v>0.1846014331606654</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2133451020998081</v>
+        <v>0.6938728366227878</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.113876774381353</v>
+        <v>0.6899833517916747</v>
       </c>
       <c r="O5">
-        <v>1.482500507363326</v>
+        <v>0.6542265412199555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2208641582942334</v>
+        <v>0.6624213128625911</v>
       </c>
       <c r="C6">
-        <v>0.06188193115460194</v>
+        <v>0.1029441890041696</v>
       </c>
       <c r="D6">
-        <v>0.02507503518282306</v>
+        <v>0.07233971784622639</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4464525266552002</v>
+        <v>0.2335421185258113</v>
       </c>
       <c r="G6">
-        <v>0.2944705413154693</v>
+        <v>0.1503676947093666</v>
       </c>
       <c r="H6">
-        <v>0.4838277335906085</v>
+        <v>0.1847912963584761</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2118549811828672</v>
+        <v>0.6892532233545836</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.114240760539623</v>
+        <v>0.6906794611926443</v>
       </c>
       <c r="O6">
-        <v>1.483196131093507</v>
+        <v>0.6545595144029051</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2310310048970052</v>
+        <v>0.6948381405238138</v>
       </c>
       <c r="C7">
-        <v>0.0628156373620854</v>
+        <v>0.105719124855959</v>
       </c>
       <c r="D7">
-        <v>0.02615761456365817</v>
+        <v>0.07562802294581417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4457689472146242</v>
+        <v>0.2358573343157495</v>
       </c>
       <c r="G7">
-        <v>0.2935363090113796</v>
+        <v>0.1505784773518428</v>
       </c>
       <c r="H7">
-        <v>0.4824767413996511</v>
+        <v>0.1835006270611785</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2221902835229059</v>
+        <v>0.7213028202296385</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.111748283823232</v>
+        <v>0.6859118409810563</v>
       </c>
       <c r="O7">
-        <v>1.478447423037821</v>
+        <v>0.6523875748403327</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2758015479604694</v>
+        <v>0.8376774775776994</v>
       </c>
       <c r="C8">
-        <v>0.06691953589825061</v>
+        <v>0.1179415949826534</v>
       </c>
       <c r="D8">
-        <v>0.03090636495293353</v>
+        <v>0.09009734878090114</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4434030582373651</v>
+        <v>0.2472551927381446</v>
       </c>
       <c r="G8">
-        <v>0.2899117839200898</v>
+        <v>0.152512220529168</v>
       </c>
       <c r="H8">
-        <v>0.4769596233576152</v>
+        <v>0.1784933848818326</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.26760105588653</v>
+        <v>0.8623724201257232</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.101589684275503</v>
+        <v>0.6664908268345116</v>
       </c>
       <c r="O8">
-        <v>1.459464259881273</v>
+        <v>0.646356782859641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3632215908014302</v>
+        <v>1.117380425007582</v>
       </c>
       <c r="C9">
-        <v>0.07490397385519998</v>
+        <v>0.1418408599068073</v>
       </c>
       <c r="D9">
-        <v>0.04011313934142891</v>
+        <v>0.1183526651904572</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4411005722768522</v>
+        <v>0.2742593188382898</v>
       </c>
       <c r="G9">
-        <v>0.2845973197197651</v>
+        <v>0.1602683530074671</v>
       </c>
       <c r="H9">
-        <v>0.4677356622538227</v>
+        <v>0.1713025867854157</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3559056305408888</v>
+        <v>1.138013687697935</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.084680870394237</v>
+        <v>0.6345248807362509</v>
       </c>
       <c r="O9">
-        <v>1.429327152602568</v>
+        <v>0.6483839722278901</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4271936722313683</v>
+        <v>1.323007019162446</v>
       </c>
       <c r="C10">
-        <v>0.08072817216086037</v>
+        <v>0.1593734731680314</v>
       </c>
       <c r="D10">
-        <v>0.04681084475470243</v>
+        <v>0.1390709111828841</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4408333360433403</v>
+        <v>0.2973384301856044</v>
       </c>
       <c r="G10">
-        <v>0.2817892223437681</v>
+        <v>0.1687351201829514</v>
       </c>
       <c r="H10">
-        <v>0.4619288547312621</v>
+        <v>0.1677740677692654</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.420301089892348</v>
+        <v>1.340242411372088</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.07408762714482</v>
+        <v>0.6150692676092859</v>
       </c>
       <c r="O10">
-        <v>1.41150914421705</v>
+        <v>0.6593839096952507</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4562354036945351</v>
+        <v>1.416669545326783</v>
       </c>
       <c r="C11">
-        <v>0.08336795348238013</v>
+        <v>0.1673478269026702</v>
       </c>
       <c r="D11">
-        <v>0.04984292865127316</v>
+        <v>0.1484947339179996</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4410210296917541</v>
+        <v>0.3086342555435735</v>
       </c>
       <c r="G11">
-        <v>0.2807505314800594</v>
+        <v>0.1732694414129696</v>
       </c>
       <c r="H11">
-        <v>0.4594973230341282</v>
+        <v>0.1665851114845012</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4494861744080367</v>
+        <v>1.432257207551629</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.069664420564919</v>
+        <v>0.607162911102229</v>
       </c>
       <c r="O11">
-        <v>1.404342633757466</v>
+        <v>0.6666998742924761</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4672236074483465</v>
+        <v>1.452162167017207</v>
       </c>
       <c r="C12">
-        <v>0.08436610917541998</v>
+        <v>0.1703676432037042</v>
       </c>
       <c r="D12">
-        <v>0.05098892985689929</v>
+        <v>0.1520637525880062</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4411365588302161</v>
+        <v>0.3130344234008646</v>
       </c>
       <c r="G12">
-        <v>0.2803915878054113</v>
+        <v>0.1750917858986156</v>
       </c>
       <c r="H12">
-        <v>0.4586067282584381</v>
+        <v>0.1661978366472283</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4605215767024049</v>
+        <v>1.467110168609736</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.068046268141224</v>
+        <v>0.6043108763098459</v>
       </c>
       <c r="O12">
-        <v>1.401763928135765</v>
+        <v>0.6698243519229123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4648575248252769</v>
+        <v>1.444516980823806</v>
       </c>
       <c r="C13">
-        <v>0.08415120524902875</v>
+        <v>0.1697172622602636</v>
       </c>
       <c r="D13">
-        <v>0.05074221611329222</v>
+        <v>0.1512950724356301</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.441109700770852</v>
+        <v>0.3120811791112956</v>
       </c>
       <c r="G13">
-        <v>0.2804673625175838</v>
+        <v>0.1746945110461198</v>
       </c>
       <c r="H13">
-        <v>0.4587971922215388</v>
+        <v>0.1662783919014004</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4581456442626859</v>
+        <v>1.459603459923272</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.068392240441071</v>
+        <v>0.604918699011769</v>
       </c>
       <c r="O13">
-        <v>1.402313288982072</v>
+        <v>0.669135335665402</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4571395997047318</v>
+        <v>1.419589008050337</v>
       </c>
       <c r="C14">
-        <v>0.08345010231857941</v>
+        <v>0.1675962651979859</v>
       </c>
       <c r="D14">
-        <v>0.04993725498158597</v>
+        <v>0.1487883474207052</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.441029643532211</v>
+        <v>0.3089937535057814</v>
       </c>
       <c r="G14">
-        <v>0.2807203114955215</v>
+        <v>0.1734172144186203</v>
       </c>
       <c r="H14">
-        <v>0.4594234486938475</v>
+        <v>0.1665519699978901</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4503943955154455</v>
+        <v>1.435124365727518</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.069530155904538</v>
+        <v>0.6069253915165547</v>
       </c>
       <c r="O14">
-        <v>1.404127774164493</v>
+        <v>0.6669497028151028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4524109193065726</v>
+        <v>1.404323335305435</v>
       </c>
       <c r="C15">
-        <v>0.08302046241007588</v>
+        <v>0.1662971156317354</v>
       </c>
       <c r="D15">
-        <v>0.04944390682578614</v>
+        <v>0.1472529782443672</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4409863947911816</v>
+        <v>0.3071188399428735</v>
       </c>
       <c r="G15">
-        <v>0.2808797298094845</v>
+        <v>0.1726487635048244</v>
       </c>
       <c r="H15">
-        <v>0.4598109775682815</v>
+        <v>0.1667278384520685</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4456443804658932</v>
+        <v>1.420131568067774</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.070234559177941</v>
+        <v>0.6081732206821897</v>
       </c>
       <c r="O15">
-        <v>1.40525679432524</v>
+        <v>0.6656577120560456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4252944685719058</v>
+        <v>1.316889004576268</v>
       </c>
       <c r="C16">
-        <v>0.08055545462759994</v>
+        <v>0.1588523280911573</v>
       </c>
       <c r="D16">
-        <v>0.0466123889383141</v>
+        <v>0.1384550695840403</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4408272914535942</v>
+        <v>0.2966169403025134</v>
       </c>
       <c r="G16">
-        <v>0.2818619119556018</v>
+        <v>0.1684531302695476</v>
       </c>
       <c r="H16">
-        <v>0.4620919848213205</v>
+        <v>0.1678604057531032</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4183915264318046</v>
+        <v>1.334229939693614</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.074384649703823</v>
+        <v>0.6156054846961254</v>
       </c>
       <c r="O16">
-        <v>1.411996393509654</v>
+        <v>0.6589541403447186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4086436589058167</v>
+        <v>1.263287026719809</v>
       </c>
       <c r="C17">
-        <v>0.07904071643493182</v>
+        <v>0.1542850523038339</v>
       </c>
       <c r="D17">
-        <v>0.04487152462800736</v>
+        <v>0.133057971838042</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4408088835910533</v>
+        <v>0.2903841168585828</v>
       </c>
       <c r="G17">
-        <v>0.2825256336797182</v>
+        <v>0.1660590619287987</v>
       </c>
       <c r="H17">
-        <v>0.4635450798484371</v>
+        <v>0.1686639564106258</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4016444216174477</v>
+        <v>1.281541374113544</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.07703188763989</v>
+        <v>0.6204110374789167</v>
       </c>
       <c r="O17">
-        <v>1.41637146829126</v>
+        <v>0.6554489121376861</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.399060996930757</v>
+        <v>1.232467611804594</v>
       </c>
       <c r="C18">
-        <v>0.0781685731906947</v>
+        <v>0.1516579326699912</v>
       </c>
       <c r="D18">
-        <v>0.04386884235701416</v>
+        <v>0.1299535729293524</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4408274060945061</v>
+        <v>0.2868736739611961</v>
       </c>
       <c r="G18">
-        <v>0.2829298555797592</v>
+        <v>0.1647458730574343</v>
       </c>
       <c r="H18">
-        <v>0.4644006307720616</v>
+        <v>0.1691651152059706</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3920017384452024</v>
+        <v>1.251237791000648</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.078591760103549</v>
+        <v>0.6232635398789483</v>
       </c>
       <c r="O18">
-        <v>1.41897627376926</v>
+        <v>0.6536490588553932</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3958155396694565</v>
+        <v>1.222034371844103</v>
       </c>
       <c r="C19">
-        <v>0.0778731273500739</v>
+        <v>0.1507684020616296</v>
       </c>
       <c r="D19">
-        <v>0.04352911576101803</v>
+        <v>0.1289024375443972</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4408386777237467</v>
+        <v>0.2856976565521236</v>
       </c>
       <c r="G19">
-        <v>0.2830705750854037</v>
+        <v>0.1643119994092146</v>
       </c>
       <c r="H19">
-        <v>0.4646937017776622</v>
+        <v>0.1693414012718932</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3887351631675529</v>
+        <v>1.240977595286438</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.079126306614455</v>
+        <v>0.6242443609618462</v>
       </c>
       <c r="O19">
-        <v>1.419873393000401</v>
+        <v>0.6530761621389019</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4104167462923556</v>
+        <v>1.268991857665526</v>
       </c>
       <c r="C20">
-        <v>0.07920205724539642</v>
+        <v>0.1547712594301629</v>
       </c>
       <c r="D20">
-        <v>0.04505698622239152</v>
+        <v>0.1336325116636203</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4408078304659924</v>
+        <v>0.2910398426449916</v>
       </c>
       <c r="G20">
-        <v>0.2824526537294503</v>
+        <v>0.1663072595003499</v>
       </c>
       <c r="H20">
-        <v>0.4633883495658466</v>
+        <v>0.1685743610115011</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4034282395057289</v>
+        <v>1.287149965328808</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.076746229889388</v>
+        <v>0.6198902775911108</v>
       </c>
       <c r="O20">
-        <v>1.415896586785166</v>
+        <v>0.6557995144515871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4594067986747064</v>
+        <v>1.426910229647717</v>
       </c>
       <c r="C21">
-        <v>0.08365607384274654</v>
+        <v>0.1682192482238634</v>
       </c>
       <c r="D21">
-        <v>0.05017375134093527</v>
+        <v>0.149524617201223</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4410519519720353</v>
+        <v>0.3098972092305488</v>
       </c>
       <c r="G21">
-        <v>0.2806450805700962</v>
+        <v>0.1737894711402035</v>
       </c>
       <c r="H21">
-        <v>0.4592386832968032</v>
+        <v>0.1664698792413404</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4526715747957439</v>
+        <v>1.442314175338481</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.069194381126529</v>
+        <v>0.6063320745893606</v>
       </c>
       <c r="O21">
-        <v>1.403591148854019</v>
+        <v>0.6675818886502753</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4913702672305078</v>
+        <v>1.530266379769586</v>
       </c>
       <c r="C22">
-        <v>0.0865584126462835</v>
+        <v>0.1770090349388056</v>
       </c>
       <c r="D22">
-        <v>0.05350509808953063</v>
+        <v>0.1599137704957769</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4414706001921829</v>
+        <v>0.322940734252775</v>
       </c>
       <c r="G22">
-        <v>0.2796641809548319</v>
+        <v>0.1792968457352089</v>
       </c>
       <c r="H22">
-        <v>0.4567024986215529</v>
+        <v>0.1654630035793971</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4847592728277448</v>
+        <v>1.54377829645145</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.064589964085968</v>
+        <v>0.5983013776183768</v>
       </c>
       <c r="O22">
-        <v>1.396336310062111</v>
+        <v>0.6773570591671643</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4743159730454636</v>
+        <v>1.475087294935548</v>
       </c>
       <c r="C23">
-        <v>0.08501019506951479</v>
+        <v>0.172317587893474</v>
       </c>
       <c r="D23">
-        <v>0.05172828397358842</v>
+        <v>0.1543684369422067</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4412234581793015</v>
+        <v>0.3159105802995228</v>
       </c>
       <c r="G23">
-        <v>0.2801693452799938</v>
+        <v>0.1762985218890307</v>
       </c>
       <c r="H23">
-        <v>0.4580400253912984</v>
+        <v>0.165965601200547</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.467642456038476</v>
+        <v>1.489617794389488</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.067017154599796</v>
+        <v>0.602509411337266</v>
       </c>
       <c r="O23">
-        <v>1.400136277134266</v>
+        <v>0.6719425911335293</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4096151642352481</v>
+        <v>1.266412713234274</v>
       </c>
       <c r="C24">
-        <v>0.07912911910884191</v>
+        <v>0.1545514493588485</v>
       </c>
       <c r="D24">
-        <v>0.04497314474994596</v>
+        <v>0.1333727670338334</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4408082159227718</v>
+        <v>0.2907431625857058</v>
       </c>
       <c r="G24">
-        <v>0.2824855774500818</v>
+        <v>0.1661948530805333</v>
       </c>
       <c r="H24">
-        <v>0.4634591445683824</v>
+        <v>0.1686147452666802</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4026218207032457</v>
+        <v>1.28461435977303</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.076875257572482</v>
+        <v>0.6201254341228903</v>
       </c>
       <c r="O24">
-        <v>1.416111001884815</v>
+        <v>0.6556403380027973</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3396150646206308</v>
+        <v>1.041719286190443</v>
       </c>
       <c r="C25">
-        <v>0.07275109822649029</v>
+        <v>0.1353813053423352</v>
       </c>
       <c r="D25">
-        <v>0.03763398417657982</v>
+        <v>0.1107184243332284</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4414732901502703</v>
+        <v>0.2664154235701375</v>
       </c>
       <c r="G25">
-        <v>0.2858427081848234</v>
+        <v>0.157710428670697</v>
       </c>
       <c r="H25">
-        <v>0.4700604684290752</v>
+        <v>0.1729512291473227</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3320995651804708</v>
+        <v>1.063520030257621</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.088933373163954</v>
+        <v>0.6424874361678619</v>
       </c>
       <c r="O25">
-        <v>1.436720899642893</v>
+        <v>0.6462455572205528</v>
       </c>
     </row>
   </sheetData>
